--- a/Excel/test_SYMBOLタウンリスト.xlsx
+++ b/Excel/test_SYMBOLタウンリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0AAD7F-DDC0-46D6-8BDF-9FD87D7F64DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9E13C-D91F-40A4-8FA9-0561B3AC30DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォロワー" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>名前</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>https://twitter.com/villhell_testnet2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>xym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>なげXymだよ！</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -83,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,6 +142,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,9 +200,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +216,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -411,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -426,16 +454,17 @@
     <col min="5" max="5" width="51.21875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -443,67 +472,92 @@
       <c r="F1" s="2">
         <v>44958.066173009254</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
